--- a/revC-fm/docs/redlines/mainboard-revC-bom-redlines-230731.xlsx
+++ b/revC-fm/docs/redlines/mainboard-revC-bom-redlines-230731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjhillis\Documents\LOCAL\Github\mainboard-hardware\revC-fm\docs\redlines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8FBA8-45A9-4765-8F19-2385300CE978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303F3B34-F4E6-4A80-B9FD-48FFA2C3913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mainboard-revC-bom-redlines-230" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="628">
   <si>
     <t>Item</t>
   </si>
@@ -805,9 +805,6 @@
     <t>MOSFET 2NCH 50V 200MA SOT363</t>
   </si>
   <si>
-    <t>Q52, Q53, Q54, Q55, Q70</t>
-  </si>
-  <si>
     <t>MMBT3906T</t>
   </si>
   <si>
@@ -865,9 +862,6 @@
     <t>RMCF0603FT2K70</t>
   </si>
   <si>
-    <t>R3, R4, R5, R6, R13, R14, R27, R28, R30, R31, R33, R34, R37, R38, R40, R41, R48, R50, R67, R69, R92, R93, R96, R97, R101, R102, R106, R107, R111, R112, R122, R123, R135, R139, R151, R155, R208, R209, R213, R214, R218, R219, R223, R224, R228, R229, R231, R232, R233, R236, R237, R238, R239, R266, R267, R270, R287, R289, R290, R291, R292</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -1273,12 +1267,6 @@
     <t>RMCF0402FT680R</t>
   </si>
   <si>
-    <t>R180, R181, R192, R193, R204, R205, R210, R215, R220, R225, R248, R253, R288</t>
-  </si>
-  <si>
-    <t>R207, R212, R217, R222</t>
-  </si>
-  <si>
     <t>4.7k</t>
   </si>
   <si>
@@ -1366,9 +1354,6 @@
     <t>RAVF164DJT1K00</t>
   </si>
   <si>
-    <t>RN2</t>
-  </si>
-  <si>
     <t>SierraLobo:R_Network04_US</t>
   </si>
   <si>
@@ -1387,9 +1372,6 @@
     <t>:R_Network04_US_1</t>
   </si>
   <si>
-    <t>RN5, RN6</t>
-  </si>
-  <si>
     <t>:R_Network04_US_2</t>
   </si>
   <si>
@@ -1895,6 +1877,33 @@
   </si>
   <si>
     <t>ABS07AIG-32.768KHZ-1-T</t>
+  </si>
+  <si>
+    <t>RN2, RN6</t>
+  </si>
+  <si>
+    <t>RN5</t>
+  </si>
+  <si>
+    <t>R217</t>
+  </si>
+  <si>
+    <t>R207, R212, R222</t>
+  </si>
+  <si>
+    <t>R180, R181, R192, R193, R204, R205, R210, R215, R216, R220, R225, R248, R253, R288</t>
+  </si>
+  <si>
+    <t>Q54</t>
+  </si>
+  <si>
+    <t>Q52, Q53, Q55, Q70</t>
+  </si>
+  <si>
+    <t>R218, R219</t>
+  </si>
+  <si>
+    <t>R3, R4, R5, R6, R13, R14, R27, R28, R30, R31, R33, R34, R37, R38, R40, R41, R48, R50, R67, R69, R92, R93, R96, R97, R101, R102, R106, R107, R111, R112, R122, R123, R135, R139, R151, R155, R208, R209, R213, R214, R223, R224, R228, R229, R231, R232, R233, R236, R237, R238, R239, R266, R267, R270, R287, R289, R290, R291, R292</t>
   </si>
 </sst>
 </file>
@@ -2384,7 +2393,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2394,7 +2403,11 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2750,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,35 +4427,35 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="5">
         <v>2</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="5" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4483,226 +4496,229 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G55" t="s">
         <v>98</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J55" t="s">
         <v>239</v>
       </c>
       <c r="K55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>267</v>
+        <v>624</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G56" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="I56" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="J56" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="K56" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I57" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J57" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K57" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="H58" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="I58" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="J58" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" t="s">
+        <v>272</v>
+      </c>
+      <c r="G59" t="s">
+        <v>234</v>
+      </c>
+      <c r="H59" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" t="s">
+        <v>270</v>
+      </c>
+      <c r="J59" t="s">
+        <v>271</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>4</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F60" t="s">
+        <v>277</v>
+      </c>
+      <c r="G60" t="s">
+        <v>278</v>
+      </c>
+      <c r="H60" t="s">
+        <v>279</v>
+      </c>
+      <c r="I60" t="s">
         <v>276</v>
       </c>
-      <c r="F59" t="s">
-        <v>278</v>
-      </c>
-      <c r="G59" t="s">
-        <v>279</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="J60" t="s">
+        <v>136</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I59" t="s">
-        <v>277</v>
-      </c>
-      <c r="J59" t="s">
-        <v>136</v>
-      </c>
-      <c r="K59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>61</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="F61" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" t="s">
+        <v>284</v>
+      </c>
+      <c r="I61" t="s">
+        <v>276</v>
+      </c>
+      <c r="J61" t="s">
         <v>281</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F60" t="s">
-        <v>284</v>
-      </c>
-      <c r="G60" t="s">
-        <v>285</v>
-      </c>
-      <c r="H60" t="s">
-        <v>286</v>
-      </c>
-      <c r="I60" t="s">
-        <v>277</v>
-      </c>
-      <c r="J60" t="s">
-        <v>283</v>
-      </c>
-      <c r="K60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>39</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F61" t="s">
-        <v>289</v>
-      </c>
-      <c r="G61" t="s">
-        <v>279</v>
-      </c>
-      <c r="H61" t="s">
-        <v>290</v>
-      </c>
-      <c r="I61" t="s">
-        <v>277</v>
-      </c>
-      <c r="J61" t="s">
-        <v>283</v>
       </c>
       <c r="K61" t="s">
         <v>20</v>
@@ -4710,63 +4726,66 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E62" s="2">
-        <v>330</v>
+      <c r="C62" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F62" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G62" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H62" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J62" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F63" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H63" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J63" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K63" t="s">
         <v>20</v>
@@ -4774,28 +4793,28 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
+      </c>
+      <c r="E64" s="2">
+        <v>330</v>
       </c>
       <c r="F64" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H64" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="I64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J64" t="s">
         <v>136</v>
@@ -4806,28 +4825,28 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H65" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J65" t="s">
         <v>136</v>
@@ -4838,28 +4857,28 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H66" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J66" t="s">
         <v>136</v>
@@ -4870,31 +4889,31 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F67" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G67" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="H67" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="I67" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="J67" t="s">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="K67" t="s">
         <v>20</v>
@@ -4902,28 +4921,28 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E68" s="2">
-        <v>499</v>
+        <v>304</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H68" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J68" t="s">
         <v>136</v>
@@ -4932,129 +4951,129 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F69" t="s">
+        <v>312</v>
+      </c>
+      <c r="G69" t="s">
+        <v>313</v>
+      </c>
+      <c r="H69" t="s">
+        <v>314</v>
+      </c>
+      <c r="I69" t="s">
+        <v>310</v>
+      </c>
+      <c r="J69" t="s">
+        <v>311</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E70" s="2">
+        <v>499</v>
+      </c>
+      <c r="F70" t="s">
+        <v>316</v>
+      </c>
+      <c r="G70" t="s">
+        <v>278</v>
+      </c>
+      <c r="H70" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" t="s">
+        <v>276</v>
+      </c>
+      <c r="J70" t="s">
+        <v>136</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B71">
         <v>11</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F71" t="s">
         <v>320</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="G71" t="s">
+        <v>278</v>
+      </c>
+      <c r="H71" t="s">
         <v>321</v>
       </c>
-      <c r="F69" t="s">
+      <c r="I71" t="s">
+        <v>276</v>
+      </c>
+      <c r="J71" t="s">
+        <v>281</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G69" t="s">
-        <v>279</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="E72" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I69" t="s">
-        <v>277</v>
-      </c>
-      <c r="J69" t="s">
-        <v>283</v>
-      </c>
-      <c r="K69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>50</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="F72" t="s">
         <v>324</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="G72" t="s">
+        <v>278</v>
+      </c>
+      <c r="H72" t="s">
         <v>325</v>
       </c>
-      <c r="F70" t="s">
-        <v>326</v>
-      </c>
-      <c r="G70" t="s">
-        <v>279</v>
-      </c>
-      <c r="H70" t="s">
-        <v>327</v>
-      </c>
-      <c r="I70" t="s">
-        <v>277</v>
-      </c>
-      <c r="J70" t="s">
-        <v>283</v>
-      </c>
-      <c r="K70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F71" t="s">
-        <v>331</v>
-      </c>
-      <c r="G71" t="s">
-        <v>315</v>
-      </c>
-      <c r="H71" t="s">
-        <v>332</v>
-      </c>
-      <c r="I71" t="s">
-        <v>277</v>
-      </c>
-      <c r="J71" t="s">
-        <v>330</v>
-      </c>
-      <c r="K71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F72" t="s">
-        <v>335</v>
-      </c>
-      <c r="G72" t="s">
-        <v>279</v>
-      </c>
-      <c r="H72" t="s">
-        <v>336</v>
-      </c>
       <c r="I72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J72" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K72" t="s">
         <v>20</v>
@@ -5062,31 +5081,31 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F73" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G73" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="H73" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="I73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J73" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="K73" t="s">
         <v>20</v>
@@ -5094,31 +5113,31 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F74" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H74" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="I74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J74" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K74" t="s">
         <v>20</v>
@@ -5126,63 +5145,63 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F75" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H75" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J75" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="K75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F76" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H76" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="I76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J76" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="K76" t="s">
         <v>20</v>
@@ -5190,63 +5209,63 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F77" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H77" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="I77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J77" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K77" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F78" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H78" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="I78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J78" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K78" t="s">
         <v>20</v>
@@ -5254,31 +5273,31 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F79" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H79" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="I79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J79" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K79" t="s">
         <v>20</v>
@@ -5286,31 +5305,31 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F80" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H80" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="I80" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K80" t="s">
         <v>20</v>
@@ -5318,34 +5337,31 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
+        <v>359</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="F81" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H81" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="I81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J81" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K81" t="s">
         <v>20</v>
@@ -5353,31 +5369,31 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F82" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H82" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="I82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J82" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K82" t="s">
         <v>20</v>
@@ -5385,31 +5401,34 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="F83" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="G83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H83" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="I83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J83" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K83" t="s">
         <v>20</v>
@@ -5417,28 +5436,28 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F84" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G84" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H84" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="I84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J84" t="s">
         <v>136</v>
@@ -5447,30 +5466,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0</v>
+        <v>372</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="F85" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H85" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J85" t="s">
         <v>136</v>
@@ -5481,63 +5500,63 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F86" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H86" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J86" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="K86" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>311</v>
+        <v>380</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G87" t="s">
-        <v>391</v>
+        <v>278</v>
       </c>
       <c r="H87" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="I87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J87" t="s">
-        <v>330</v>
+        <v>136</v>
       </c>
       <c r="K87" t="s">
         <v>20</v>
@@ -5545,31 +5564,31 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
+        <v>383</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>7</v>
+        <v>384</v>
+      </c>
+      <c r="F88" t="s">
+        <v>385</v>
       </c>
       <c r="G88" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="H88" t="s">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="I88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J88" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K88" t="s">
         <v>20</v>
@@ -5577,31 +5596,31 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="F89" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H89" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J89" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K89" t="s">
         <v>20</v>
@@ -5609,28 +5628,28 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F90" t="s">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="H90" t="s">
-        <v>401</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J90" t="s">
         <v>136</v>
@@ -5641,31 +5660,31 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F91" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G91" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="H91" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="I91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J91" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="K91" t="s">
         <v>20</v>
@@ -5673,31 +5692,31 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F92" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H92" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J92" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="K92" t="s">
         <v>20</v>
@@ -5705,31 +5724,31 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F93" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H93" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="I93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J93" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="K93" t="s">
         <v>20</v>
@@ -5737,66 +5756,63 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E94" s="2">
-        <v>680</v>
+        <v>404</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="F94" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H94" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="I94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J94" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K94" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="2">
-        <v>0</v>
+        <v>408</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="F95" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="G95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H95" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="I95" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J95" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K95" t="s">
         <v>20</v>
@@ -5804,66 +5820,66 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
+      </c>
+      <c r="E96" s="2">
+        <v>680</v>
       </c>
       <c r="F96" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H96" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="I96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J96" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>422</v>
+        <v>623</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>288</v>
+      <c r="E97" s="2">
+        <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="G97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H97" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="I97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J97" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="K97" t="s">
         <v>20</v>
@@ -5871,34 +5887,31 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D98" t="s">
-        <v>7</v>
+        <v>622</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>282</v>
+        <v>415</v>
       </c>
       <c r="F98" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="G98" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H98" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
       <c r="I98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J98" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K98" t="s">
         <v>20</v>
@@ -5906,34 +5919,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>424</v>
+      <c r="C99" s="4" t="s">
+        <v>621</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="F99" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="G99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H99" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="I99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K99" t="s">
         <v>20</v>
@@ -5941,31 +5954,34 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F100" t="s">
+        <v>287</v>
+      </c>
+      <c r="G100" t="s">
+        <v>278</v>
+      </c>
+      <c r="H100" t="s">
         <v>288</v>
       </c>
-      <c r="F100" t="s">
-        <v>426</v>
-      </c>
-      <c r="G100" t="s">
-        <v>279</v>
-      </c>
-      <c r="H100" t="s">
-        <v>427</v>
-      </c>
       <c r="I100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J100" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K100" t="s">
         <v>20</v>
@@ -5973,63 +5989,69 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>429</v>
+        <v>280</v>
       </c>
       <c r="F101" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
       <c r="G101" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H101" t="s">
-        <v>432</v>
+        <v>284</v>
       </c>
       <c r="I101" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J101" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K101" t="s">
-        <v>430</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="F102" t="s">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="G102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H102" t="s">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="I102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J102" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="K102" t="s">
         <v>20</v>
@@ -6037,28 +6059,28 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>437</v>
+        <v>286</v>
       </c>
       <c r="F103" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H103" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="I103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J103" t="s">
         <v>136</v>
@@ -6069,368 +6091,369 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E104" s="2">
-        <v>220</v>
+        <v>424</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="F104" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="G104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H104" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="I104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J104" t="s">
         <v>136</v>
       </c>
       <c r="K104" t="s">
-        <v>20</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F105" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H105" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="I105" t="s">
-        <v>444</v>
+        <v>276</v>
       </c>
       <c r="J105" t="s">
-        <v>445</v>
+        <v>136</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D106" t="s">
-        <v>7</v>
+        <v>432</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="F106" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H106" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="I106" t="s">
-        <v>449</v>
+        <v>276</v>
       </c>
       <c r="J106" t="s">
-        <v>445</v>
+        <v>136</v>
+      </c>
+      <c r="K106" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>282</v>
+        <v>436</v>
+      </c>
+      <c r="E107" s="2">
+        <v>220</v>
       </c>
       <c r="F107" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G107" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H107" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I107" t="s">
-        <v>449</v>
+        <v>276</v>
       </c>
       <c r="J107" t="s">
-        <v>445</v>
+        <v>136</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F108" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H108" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I108" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="J108" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>455</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F109" t="s">
+        <v>445</v>
+      </c>
+      <c r="G109" t="s">
+        <v>278</v>
+      </c>
+      <c r="H109" t="s">
         <v>446</v>
       </c>
-      <c r="G109" t="s">
-        <v>279</v>
-      </c>
-      <c r="H109" t="s">
-        <v>447</v>
-      </c>
       <c r="I109" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="J109" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F110" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H110" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I110" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="J110" t="s">
-        <v>445</v>
-      </c>
-      <c r="K110" t="s">
-        <v>20</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="F111" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="G111" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="H111" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="I111" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J111" t="s">
-        <v>462</v>
-      </c>
-      <c r="K111" t="s">
-        <v>20</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>464</v>
+        <v>620</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>465</v>
+        <v>280</v>
       </c>
       <c r="F112" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="G112" t="s">
-        <v>469</v>
+        <v>278</v>
       </c>
       <c r="H112" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="I112" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="J112" t="s">
-        <v>467</v>
-      </c>
-      <c r="K112" t="s">
-        <v>20</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F113" t="s">
+        <v>442</v>
+      </c>
+      <c r="G113" t="s">
+        <v>278</v>
+      </c>
+      <c r="H113" t="s">
+        <v>443</v>
+      </c>
+      <c r="I113" t="s">
+        <v>452</v>
+      </c>
+      <c r="J113" t="s">
+        <v>441</v>
+      </c>
+      <c r="K113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>110</v>
+      </c>
+      <c r="B114">
         <v>1</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F113" t="s">
-        <v>474</v>
-      </c>
-      <c r="G113" t="s">
-        <v>285</v>
-      </c>
-      <c r="H113" t="s">
-        <v>471</v>
-      </c>
-      <c r="I113" t="s">
-        <v>472</v>
-      </c>
-      <c r="J113" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>30</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="F114" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="G114" t="s">
-        <v>481</v>
+        <v>143</v>
       </c>
       <c r="H114" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="I114" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="J114" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="K114" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E115" s="2">
-        <v>5027</v>
+        <v>458</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="F115" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="G115" t="s">
-        <v>485</v>
-      </c>
-      <c r="H115">
-        <v>5027</v>
+        <v>463</v>
+      </c>
+      <c r="H115" t="s">
+        <v>459</v>
       </c>
       <c r="I115" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="J115" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="K115" t="s">
         <v>20</v>
@@ -6438,774 +6461,867 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="F116" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="G116" t="s">
-        <v>491</v>
+        <v>283</v>
       </c>
       <c r="H116" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="I116" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="J116" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="F117" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="G117" t="s">
-        <v>114</v>
+        <v>475</v>
       </c>
       <c r="H117" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="I117" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="J117" t="s">
-        <v>496</v>
+        <v>472</v>
+      </c>
+      <c r="K117" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>499</v>
+        <v>476</v>
+      </c>
+      <c r="E118" s="2">
+        <v>5027</v>
       </c>
       <c r="F118" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="G118" t="s">
-        <v>503</v>
-      </c>
-      <c r="H118" t="s">
-        <v>499</v>
+        <v>479</v>
+      </c>
+      <c r="H118">
+        <v>5027</v>
       </c>
       <c r="I118" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="J118" t="s">
-        <v>501</v>
+        <v>477</v>
+      </c>
+      <c r="K118" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="F119" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="G119" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="H119" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="I119" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="J119" t="s">
-        <v>507</v>
-      </c>
-      <c r="K119" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="F120" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="G120" t="s">
-        <v>510</v>
+        <v>114</v>
       </c>
       <c r="H120" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="I120" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="J120" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="F121" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="G121" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="H121" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="I121" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="J121" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>523</v>
+        <v>499</v>
+      </c>
+      <c r="F122" t="s">
+        <v>503</v>
       </c>
       <c r="G122" t="s">
-        <v>526</v>
+        <v>504</v>
+      </c>
+      <c r="H122" t="s">
+        <v>499</v>
       </c>
       <c r="I122" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="J122" t="s">
-        <v>525</v>
+        <v>501</v>
+      </c>
+      <c r="K122" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="F123" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="G123" t="s">
-        <v>114</v>
+        <v>504</v>
       </c>
       <c r="H123" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="I123" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="J123" t="s">
-        <v>530</v>
-      </c>
-      <c r="K123" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="F124" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="G124" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="H124" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="I124" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="J124" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F125" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="G125" t="s">
-        <v>114</v>
-      </c>
-      <c r="H125" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="I125" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="J125" t="s">
-        <v>272</v>
+        <v>519</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="F126" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="G126" t="s">
         <v>114</v>
       </c>
       <c r="H126" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="I126" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="J126" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="K126" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="F127" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="G127" t="s">
-        <v>114</v>
+        <v>485</v>
       </c>
       <c r="H127" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="I127" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="J127" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="F128" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="G128" t="s">
-        <v>558</v>
+        <v>114</v>
       </c>
       <c r="H128" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="I128" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="J128" t="s">
-        <v>556</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="F129" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="G129" t="s">
         <v>114</v>
       </c>
       <c r="H129" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="I129" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="J129" t="s">
-        <v>562</v>
+        <v>540</v>
+      </c>
+      <c r="K129" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>564</v>
+        <v>543</v>
+      </c>
+      <c r="F130" t="s">
+        <v>546</v>
       </c>
       <c r="G130" t="s">
-        <v>567</v>
+        <v>114</v>
       </c>
       <c r="H130" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="I130" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="J130" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D131" t="s">
-        <v>7</v>
+        <v>547</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>569</v>
+        <v>548</v>
+      </c>
+      <c r="F131" t="s">
+        <v>551</v>
       </c>
       <c r="G131" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="H131" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="I131" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="J131" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>574</v>
+        <v>554</v>
+      </c>
+      <c r="F132" t="s">
+        <v>554</v>
       </c>
       <c r="G132" t="s">
-        <v>577</v>
+        <v>114</v>
       </c>
       <c r="H132" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="I132" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="J132" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D133" t="s">
-        <v>7</v>
+        <v>557</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G133" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H133" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I133" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J133" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>579</v>
+        <v>562</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F134" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="G134" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="H134" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="I134" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="J134" t="s">
-        <v>489</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F135" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="G135" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="H135" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="I135" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="J135" t="s">
-        <v>586</v>
-      </c>
-      <c r="K135" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>589</v>
+        <v>572</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F136" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="G136" t="s">
+        <v>561</v>
+      </c>
+      <c r="H136" t="s">
         <v>558</v>
       </c>
-      <c r="H136" t="s">
-        <v>592</v>
-      </c>
       <c r="I136" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="J136" t="s">
-        <v>586</v>
-      </c>
-      <c r="K136" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F137" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="G137" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="H137" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="I137" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J137" t="s">
-        <v>597</v>
-      </c>
-      <c r="K137" t="s">
-        <v>598</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="F138" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="G138" t="s">
-        <v>98</v>
+        <v>552</v>
       </c>
       <c r="H138" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="I138" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="J138" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="K138" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="F139" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="G139" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H139" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="I139" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="J139" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="K139" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="F140" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="G140" t="s">
-        <v>114</v>
+        <v>515</v>
       </c>
       <c r="H140" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="I140" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="J140" t="s">
-        <v>224</v>
+        <v>591</v>
       </c>
       <c r="K140" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
+        <v>137</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F141" t="s">
+        <v>599</v>
+      </c>
+      <c r="G141" t="s">
+        <v>98</v>
+      </c>
+      <c r="H141" t="s">
+        <v>595</v>
+      </c>
+      <c r="I141" t="s">
+        <v>596</v>
+      </c>
+      <c r="J141" t="s">
+        <v>597</v>
+      </c>
+      <c r="K141" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F142" t="s">
+        <v>605</v>
+      </c>
+      <c r="G142" t="s">
+        <v>552</v>
+      </c>
+      <c r="H142" t="s">
+        <v>601</v>
+      </c>
+      <c r="I142" t="s">
+        <v>602</v>
+      </c>
+      <c r="J142" t="s">
+        <v>603</v>
+      </c>
+      <c r="K142" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>139</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F143" t="s">
+        <v>610</v>
+      </c>
+      <c r="G143" t="s">
+        <v>114</v>
+      </c>
+      <c r="H143" t="s">
+        <v>607</v>
+      </c>
+      <c r="I143" t="s">
+        <v>608</v>
+      </c>
+      <c r="J143" t="s">
+        <v>224</v>
+      </c>
+      <c r="K143" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B144">
         <v>2</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F144" t="s">
+        <v>616</v>
+      </c>
+      <c r="G144" t="s">
         <v>617</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="H144" t="s">
         <v>618</v>
       </c>
-      <c r="F141" t="s">
-        <v>622</v>
-      </c>
-      <c r="G141" t="s">
-        <v>623</v>
-      </c>
-      <c r="H141" t="s">
-        <v>624</v>
-      </c>
-      <c r="I141" t="s">
-        <v>619</v>
-      </c>
-      <c r="J141" t="s">
-        <v>620</v>
-      </c>
-      <c r="K141" t="s">
-        <v>621</v>
+      <c r="I144" t="s">
+        <v>613</v>
+      </c>
+      <c r="J144" t="s">
+        <v>614</v>
+      </c>
+      <c r="K144" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
